--- a/biology/Médecine/Circumduction/Circumduction.xlsx
+++ b/biology/Médecine/Circumduction/Circumduction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La circumduction (emprunté du nom latin circumductio, dérivé du verbe circumducere, se traduisant par « conduire autour, conduire en formant un cercle ») est un mouvement articulaire complexe.
 Au cours de ce mouvement, l'extrémité distale de la partie du corps mobilisée décrit un cercle. Ce n'est pas un mouvement isolé, mais plutôt une séquence continue de mouvements de flexion, d'abduction, d'extension, d'adduction, de rotation externe 
@@ -516,7 +528,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Articulation scapulo-humérale
 Articulation coxo-fémorale</t>
